--- a/fMRI experiment/psychopy code/fmri_instruct4.xlsx
+++ b/fMRI experiment/psychopy code/fmri_instruct4.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -17,7 +16,7 @@
     <t>instruct_text</t>
   </si>
   <si>
-    <t>We encourage you to keep these questions in mind while listening to the story while simulating the associated perspective.</t>
+    <t>We encourage you to keep these questions in mind while listening to the story and simulating the associated perspective.</t>
   </si>
   <si>
     <t>When you are in the scanner, you will listen to the 12 short stories.</t>
@@ -258,7 +257,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -267,7 +266,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1405,13 +1404,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
